--- a/resources/schema.xlsx
+++ b/resources/schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arturaronov/Desktop/Programming/fswdi/unit-2/unit-2-project/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B48E1F1-F8F2-EC4F-9492-F0BADFC047B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C8283E-1931-044D-AD32-F836F156E86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="18060" windowHeight="17440" xr2:uid="{F36238C6-9F8D-7F47-AEC7-CA6B481BC39D}"/>
+    <workbookView xWindow="15540" yWindow="500" windowWidth="18060" windowHeight="17440" xr2:uid="{F36238C6-9F8D-7F47-AEC7-CA6B481BC39D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>Field</t>
   </si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>avatar</t>
+  </si>
+  <si>
+    <t>@unique</t>
   </si>
 </sst>
 </file>
@@ -520,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{013DEA9D-B970-0C43-96BA-0450782AFFCE}">
   <dimension ref="C6:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -730,7 +733,9 @@
         <v>24</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
